--- a/Hybrid.xlsx
+++ b/Hybrid.xlsx
@@ -3775,13 +3775,13 @@
         <v>0</v>
       </c>
       <c r="K23" s="23" t="n">
-        <v>69.05</v>
+        <v>68.53</v>
       </c>
       <c r="L23" s="24" t="n">
-        <v>30.95</v>
+        <v>31.47</v>
       </c>
       <c r="M23" s="19" t="n">
-        <v>18.69</v>
+        <v>18.18</v>
       </c>
       <c r="N23" s="20" t="n">
         <v>8.52</v>
@@ -5928,49 +5928,49 @@
         <v>0</v>
       </c>
       <c r="K20" s="23" t="n">
-        <v>70.73</v>
+        <v>71.16</v>
       </c>
       <c r="L20" s="24" t="n">
-        <v>29.27</v>
-      </c>
-      <c r="M20" s="19" t="n">
-        <v>22.39</v>
+        <v>28.84</v>
+      </c>
+      <c r="M20" s="35" t="n">
+        <v>24.72</v>
       </c>
       <c r="N20" s="20" t="n">
-        <v>10.88</v>
+        <v>10.83</v>
       </c>
       <c r="O20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="21" t="n">
-        <v>3.39</v>
+        <v>3.23</v>
       </c>
       <c r="Q20" s="21" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="R20" s="20" t="n">
-        <v>7.17</v>
+        <v>6.06</v>
+      </c>
+      <c r="R20" s="21" t="n">
+        <v>6.49</v>
       </c>
       <c r="S20" s="21" t="n">
-        <v>3.94</v>
+        <v>4.12</v>
       </c>
       <c r="T20" s="20" t="n">
-        <v>8.21</v>
+        <v>7.43</v>
       </c>
       <c r="U20" s="21" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="V20" s="27" t="n">
-        <v>0</v>
+        <v>5.24</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="W20" s="22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y20" s="19" t="n">
-        <v>20.19</v>
+        <v>2.37</v>
+      </c>
+      <c r="X20" s="22" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Y20" s="33" t="n">
+        <v>17.45</v>
       </c>
       <c r="Z20" s="11" t="s">
         <v>35</v>
@@ -5978,8 +5978,8 @@
       <c r="AA20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AB20" s="22" t="n">
-        <v>2.84</v>
+      <c r="AB20" s="21" t="n">
+        <v>4.4</v>
       </c>
       <c r="AC20" s="11" t="s">
         <v>35</v>
@@ -6570,58 +6570,58 @@
         <v>11.97</v>
       </c>
       <c r="K26" s="23" t="n">
-        <v>72.51</v>
+        <v>72.9</v>
       </c>
       <c r="L26" s="24" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="M26" s="19" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="N26" s="33" t="n">
-        <v>12.13</v>
+        <v>27.1</v>
+      </c>
+      <c r="M26" s="35" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>10.74</v>
       </c>
       <c r="O26" s="22" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="P26" s="22" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="Q26" s="21" t="n">
-        <v>5.44</v>
+        <v>4.62</v>
       </c>
       <c r="R26" s="21" t="n">
-        <v>4.51</v>
+        <v>3.96</v>
       </c>
       <c r="S26" s="21" t="n">
-        <v>6.86</v>
+        <v>6.52</v>
       </c>
       <c r="T26" s="20" t="n">
-        <v>8.8</v>
+        <v>9.29</v>
       </c>
       <c r="U26" s="21" t="n">
-        <v>6.47</v>
+        <v>5.61</v>
       </c>
       <c r="V26" s="27" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="21" t="n">
-        <v>4.37</v>
+        <v>4.54</v>
       </c>
       <c r="X26" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y26" s="22" t="n">
-        <v>0.84</v>
+      <c r="Y26" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="Z26" s="33" t="n">
-        <v>16.51</v>
+        <v>15.09</v>
       </c>
       <c r="AA26" s="11" t="s">
         <v>35</v>
       </c>
       <c r="AB26" s="21" t="n">
-        <v>5.16</v>
+        <v>4.52</v>
       </c>
       <c r="AC26" s="11" t="s">
         <v>35</v>
@@ -6677,58 +6677,58 @@
         <v>11.97</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>72.51</v>
+        <v>72.9</v>
       </c>
       <c r="L27" s="24" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="M27" s="19" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="N27" s="33" t="n">
-        <v>12.13</v>
+        <v>27.1</v>
+      </c>
+      <c r="M27" s="35" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>10.74</v>
       </c>
       <c r="O27" s="22" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="P27" s="22" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="Q27" s="21" t="n">
-        <v>5.44</v>
+        <v>4.62</v>
       </c>
       <c r="R27" s="21" t="n">
-        <v>4.51</v>
+        <v>3.96</v>
       </c>
       <c r="S27" s="21" t="n">
-        <v>6.86</v>
+        <v>6.52</v>
       </c>
       <c r="T27" s="20" t="n">
-        <v>8.8</v>
+        <v>9.29</v>
       </c>
       <c r="U27" s="21" t="n">
-        <v>6.47</v>
+        <v>5.61</v>
       </c>
       <c r="V27" s="27" t="n">
         <v>0</v>
       </c>
       <c r="W27" s="21" t="n">
-        <v>4.37</v>
+        <v>4.54</v>
       </c>
       <c r="X27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y27" s="22" t="n">
-        <v>0.84</v>
+      <c r="Y27" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="Z27" s="33" t="n">
-        <v>16.51</v>
+        <v>15.09</v>
       </c>
       <c r="AA27" s="11" t="s">
         <v>35</v>
       </c>
       <c r="AB27" s="21" t="n">
-        <v>5.16</v>
+        <v>4.52</v>
       </c>
       <c r="AC27" s="11" t="s">
         <v>35</v>
@@ -6784,58 +6784,58 @@
         <v>12.69</v>
       </c>
       <c r="K28" s="23" t="n">
-        <v>72.51</v>
+        <v>72.9</v>
       </c>
       <c r="L28" s="24" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="M28" s="19" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="N28" s="33" t="n">
-        <v>12.13</v>
+        <v>27.1</v>
+      </c>
+      <c r="M28" s="35" t="n">
+        <v>24.44</v>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>10.74</v>
       </c>
       <c r="O28" s="22" t="n">
-        <v>1.34</v>
+        <v>1.66</v>
       </c>
       <c r="P28" s="22" t="n">
-        <v>1.58</v>
+        <v>1.51</v>
       </c>
       <c r="Q28" s="21" t="n">
-        <v>5.44</v>
+        <v>4.62</v>
       </c>
       <c r="R28" s="21" t="n">
-        <v>4.51</v>
+        <v>3.96</v>
       </c>
       <c r="S28" s="21" t="n">
-        <v>6.86</v>
+        <v>6.52</v>
       </c>
       <c r="T28" s="20" t="n">
-        <v>8.8</v>
+        <v>9.29</v>
       </c>
       <c r="U28" s="21" t="n">
-        <v>6.47</v>
+        <v>5.61</v>
       </c>
       <c r="V28" s="27" t="n">
         <v>0</v>
       </c>
       <c r="W28" s="21" t="n">
-        <v>4.37</v>
+        <v>4.54</v>
       </c>
       <c r="X28" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y28" s="22" t="n">
-        <v>0.84</v>
+      <c r="Y28" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="Z28" s="33" t="n">
-        <v>16.51</v>
+        <v>15.09</v>
       </c>
       <c r="AA28" s="11" t="s">
         <v>35</v>
       </c>
       <c r="AB28" s="21" t="n">
-        <v>5.16</v>
+        <v>4.52</v>
       </c>
       <c r="AC28" s="11" t="s">
         <v>35</v>
@@ -9398,49 +9398,49 @@
         <v>8.31</v>
       </c>
       <c r="K12" s="35" t="n">
-        <v>24.09</v>
+        <v>24.17</v>
       </c>
       <c r="L12" s="23" t="n">
-        <v>75.91</v>
+        <v>75.83</v>
       </c>
       <c r="M12" s="20" t="n">
-        <v>7.18</v>
+        <v>8.09</v>
       </c>
       <c r="N12" s="21" t="n">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="O12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="P12" s="22" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="Q12" s="22" t="n">
-        <v>2.47</v>
+        <v>1.98</v>
       </c>
       <c r="R12" s="22" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="S12" s="22" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="T12" s="22" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="U12" s="22" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V12" s="27" t="n">
-        <v>0</v>
+        <v>1.89</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="W12" s="22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X12" s="22" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y12" s="33" t="n">
-        <v>15.89</v>
+        <v>0.45</v>
+      </c>
+      <c r="Y12" s="20" t="n">
+        <v>9.61</v>
       </c>
       <c r="Z12" s="11" t="s">
         <v>35</v>
@@ -9449,16 +9449,16 @@
         <v>35</v>
       </c>
       <c r="AB12" s="23" t="n">
-        <v>50.04</v>
-      </c>
-      <c r="AC12" s="21" t="n">
-        <v>4.15</v>
+        <v>47.62</v>
+      </c>
+      <c r="AC12" s="22" t="n">
+        <v>2.85</v>
       </c>
       <c r="AD12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="22" t="n">
-        <v>2.43</v>
+      <c r="AE12" s="21" t="n">
+        <v>3.66</v>
       </c>
       <c r="AF12" s="11" t="s">
         <v>35</v>
@@ -9727,50 +9727,50 @@
       <c r="J15" s="29" t="n">
         <v>9.34</v>
       </c>
-      <c r="K15" s="35" t="n">
-        <v>23.82</v>
+      <c r="K15" s="19" t="n">
+        <v>21.63</v>
       </c>
       <c r="L15" s="23" t="n">
-        <v>76.18</v>
-      </c>
-      <c r="M15" s="20" t="n">
-        <v>7.44</v>
+        <v>78.37</v>
+      </c>
+      <c r="M15" s="21" t="n">
+        <v>6.9</v>
       </c>
       <c r="N15" s="22" t="n">
-        <v>2.51</v>
+        <v>2.25</v>
       </c>
       <c r="O15" s="22" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P15" s="22" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="Q15" s="22" t="n">
-        <v>2.05</v>
+        <v>1.46</v>
       </c>
       <c r="R15" s="22" t="n">
-        <v>1.18</v>
+        <v>0.98</v>
       </c>
       <c r="S15" s="22" t="n">
-        <v>1.86</v>
+        <v>1.62</v>
       </c>
       <c r="T15" s="21" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="U15" s="22" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>35</v>
+        <v>1.59</v>
+      </c>
+      <c r="V15" s="27" t="n">
+        <v>0</v>
       </c>
       <c r="W15" s="22" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" s="28" t="n">
-        <v>36.05</v>
+      <c r="Y15" s="35" t="n">
+        <v>25.52</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>35</v>
@@ -9778,8 +9778,8 @@
       <c r="AA15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AB15" s="28" t="n">
-        <v>35.26</v>
+      <c r="AB15" s="45" t="n">
+        <v>42.67</v>
       </c>
       <c r="AC15" s="11" t="s">
         <v>35</v>
@@ -11709,7 +11709,7 @@
         <v>430.9</v>
       </c>
       <c r="G10" s="13" t="n">
-        <v>18.58</v>
+        <v>18.57</v>
       </c>
       <c r="H10" s="32" t="n">
         <v>0</v>
@@ -11929,7 +11929,7 @@
         <v>752.8</v>
       </c>
       <c r="G12" s="13" t="n">
-        <v>10.65</v>
+        <v>10.59</v>
       </c>
       <c r="H12" s="32" t="n">
         <v>0</v>
